--- a/Product-Backlog/Product Backlog (BD).xlsx
+++ b/Product-Backlog/Product Backlog (BD).xlsx
@@ -104,10 +104,10 @@
     <t>Ajouter un bénéficiaire</t>
   </si>
   <si>
-    <t>Nom + IBAN</t>
-  </si>
-  <si>
-    <t>Vérifier l’IBAN</t>
+    <t>Nom + Prénom + Type + RIB</t>
+  </si>
+  <si>
+    <t>Vérifier le RIB</t>
   </si>
   <si>
     <t>Contrôle format</t>
@@ -865,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -885,12 +885,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2119,7 +2113,6 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="zh-CN" altLang="en-US" sz="3800" b="1">
-              <a:ln/>
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -2136,7 +2129,6 @@
             <a:t>PRODUCT BACKLOG </a:t>
           </a:r>
           <a:endParaRPr lang="zh-CN" altLang="en-US" sz="3800" b="1">
-            <a:ln/>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
             </a:solidFill>
@@ -2608,7 +2600,7 @@
   <dimension ref="A7:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J41" sqref="J41"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="6"/>
@@ -2680,95 +2672,95 @@
     </row>
     <row r="11" ht="31" customHeight="1" spans="1:7">
       <c r="A11" s="1"/>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="1"/>
     </row>
     <row r="12" ht="29" customHeight="1" spans="1:7">
       <c r="A12" s="1"/>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="1"/>
     </row>
     <row r="13" ht="28" customHeight="1" spans="1:7">
       <c r="A13" s="1"/>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1"/>
     </row>
     <row r="14" ht="29" customHeight="1" spans="1:7">
       <c r="A14" s="1"/>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>18</v>
       </c>
       <c r="G14" s="1"/>
     </row>
     <row r="15" ht="33" customHeight="1" spans="1:7">
       <c r="A15" s="1"/>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1"/>
@@ -2822,114 +2814,114 @@
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:7">
       <c r="A23" s="1"/>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="7" t="s">
         <v>23</v>
       </c>
       <c r="G23" s="1"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:7">
       <c r="A24" s="1"/>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G24" s="1"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:7">
       <c r="A25" s="1"/>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="7" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="1"/>
     </row>
     <row r="26" ht="31" customHeight="1" spans="1:7">
       <c r="A26" s="1"/>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="7" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="1"/>
     </row>
     <row r="27" ht="34" customHeight="1" spans="1:7">
       <c r="A27" s="1"/>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G27" s="1"/>
     </row>
     <row r="28" ht="28" customHeight="1" spans="1:7">
       <c r="A28" s="1"/>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="7" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="1"/>
@@ -2984,114 +2976,114 @@
     </row>
     <row r="36" ht="31" customHeight="1" spans="1:7">
       <c r="A36" s="1"/>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" ht="33" customHeight="1" spans="1:7">
       <c r="A37" s="1"/>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="7" t="s">
         <v>39</v>
       </c>
       <c r="G37" s="1"/>
     </row>
     <row r="38" ht="31" customHeight="1" spans="1:7">
       <c r="A38" s="1"/>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="1"/>
     </row>
     <row r="39" ht="33" customHeight="1" spans="1:7">
       <c r="A39" s="1"/>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="7" t="s">
         <v>43</v>
       </c>
       <c r="G39" s="1"/>
     </row>
     <row r="40" ht="32" customHeight="1" spans="1:7">
       <c r="A40" s="1"/>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="7" t="s">
         <v>45</v>
       </c>
       <c r="G40" s="1"/>
     </row>
     <row r="41" ht="36" customHeight="1" spans="1:7">
       <c r="A41" s="1"/>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G41" s="1"/>
@@ -3147,95 +3139,95 @@
     </row>
     <row r="49" ht="31" customHeight="1" spans="1:7">
       <c r="A49" s="1"/>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="7" t="s">
         <v>50</v>
       </c>
       <c r="G49" s="1"/>
     </row>
     <row r="50" ht="29" customHeight="1" spans="1:7">
       <c r="A50" s="1"/>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="7" t="s">
         <v>52</v>
       </c>
       <c r="G50" s="1"/>
     </row>
     <row r="51" ht="33" customHeight="1" spans="1:7">
       <c r="A51" s="1"/>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="7" t="s">
         <v>54</v>
       </c>
       <c r="G51" s="1"/>
     </row>
     <row r="52" ht="31" customHeight="1" spans="1:7">
       <c r="A52" s="1"/>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="7" t="s">
         <v>56</v>
       </c>
       <c r="G52" s="1"/>
     </row>
     <row r="53" ht="34" customHeight="1" spans="1:7">
       <c r="A53" s="1"/>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="D53" s="8" t="s">
+      <c r="D53" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G53" s="1"/>
